--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446404.2343236813</v>
+        <v>443965.7612239348</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>158.1556649146112</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>167.6412050236331</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>11.16818915334033</v>
+        <v>133.4878127730399</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>243.2012226245566</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>88.91933018746735</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1105,22 +1105,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>223.3702510153011</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>378.6868400613293</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>54.35958206012863</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>140.2023899461083</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>97.48562715051624</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.8566572348583</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758626</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182133</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>90.14863908058233</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819384</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>41.74133133758637</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>142.1343012721642</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428436</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>112.1382188876854</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.7518808581241</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.396382525582</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.43386558517</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D2" t="n">
-        <v>779.1681669784198</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1681669784198</v>
+        <v>268.2622120761603</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>268.2622120761603</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>268.2622120761603</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.56518664982</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379706</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118626</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.996222589704</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992582</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410636</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886739</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533339</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218338</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1916.013548943703</v>
+        <v>1510.942032154625</v>
       </c>
       <c r="U4" t="n">
-        <v>1626.910682069347</v>
+        <v>1221.839165280268</v>
       </c>
       <c r="V4" t="n">
-        <v>1372.22619386346</v>
+        <v>967.1546770743814</v>
       </c>
       <c r="W4" t="n">
-        <v>1082.809023826499</v>
+        <v>677.7375070374208</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>677.7375070374208</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>456.9449278938906</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.169188758594</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.206671818182</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1150.940973211432</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>765.1527206131875</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>354.16681582358</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
         <v>624.6477645191717</v>
@@ -4720,7 +4720,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1198.385075065301</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="W7" t="n">
-        <v>1645.778206672847</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>943.7005868594143</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1870.65619074133</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1501.693673800919</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1143.427975194168</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>757.639722595924</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3270.697152861565</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3064.719405245788</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2811.188928519624</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2811.188928519624</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2811.188928519624</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.723170258544</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>2257.256030805452</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>917.616325937273</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>748.6801430093661</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>451.67355609912</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1547.30787621778</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1258.205009343424</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1003.520521137537</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>714.1033511005761</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X10" t="n">
-        <v>714.1033511005761</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.1033511005761</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="11">
@@ -5033,34 +5033,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101285</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>699.2677182139842</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>538.736343540612</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.00331409304</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887153</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2404.800122633204</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2221.945288288108</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2002.343823311049</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1713.268596655247</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1458.58410844936</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1169.166938412399</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>941.1773875143821</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>720.3848083708519</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,46 +5753,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,16 +5823,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
@@ -5841,7 +5841,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,13 +5981,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,7 +5996,7 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,28 +6005,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400739</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121671</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121671</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121671</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121671</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.721318527047</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797767</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510511</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854709</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611861</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138438</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703137</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
         <v>1520.445529061503</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400753</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,52 +6932,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>4.308775558570233e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>138.2811965783745</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>136.4520994727093</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>147.8437778494723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>3.727996117236444</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>125.5054897610416</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>196.0358353086618</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>24.63391537253531</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012034</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219395</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272898</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>119.8635921600883</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>963966.507722305</v>
+        <v>963966.5077223055</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1041310.793905005</v>
+        <v>1041310.793905004</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631195</v>
+        <v>354580.0968631198</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26332,28 +26332,28 @@
         <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="J2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="K2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="J2" t="n">
-        <v>383394.6348527531</v>
-      </c>
-      <c r="K2" t="n">
-        <v>383394.6348527531</v>
-      </c>
       <c r="L2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>7.680563094254467e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551188</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49629.01520551646</v>
+        <v>49629.01520551663</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26445,10 +26445,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1131727.604631382</v>
+        <v>-1131913.998019922</v>
       </c>
       <c r="C6" t="n">
-        <v>189877.0012059587</v>
+        <v>189877.0012059594</v>
       </c>
       <c r="D6" t="n">
-        <v>189877.0012059595</v>
+        <v>189877.0012059596</v>
       </c>
       <c r="E6" t="n">
-        <v>-56137.22092533976</v>
+        <v>-56171.95885077526</v>
       </c>
       <c r="F6" t="n">
-        <v>269275.2408820154</v>
+        <v>269240.5029565797</v>
       </c>
       <c r="G6" t="n">
-        <v>269275.2408820154</v>
+        <v>269240.5029565797</v>
       </c>
       <c r="H6" t="n">
-        <v>269275.2408820151</v>
+        <v>269240.5029565797</v>
       </c>
       <c r="I6" t="n">
-        <v>269275.2408820155</v>
+        <v>269240.5029565797</v>
       </c>
       <c r="J6" t="n">
-        <v>51744.03848473811</v>
+        <v>51709.30055930236</v>
       </c>
       <c r="K6" t="n">
-        <v>269275.2408820156</v>
+        <v>269240.5029565796</v>
       </c>
       <c r="L6" t="n">
-        <v>269275.2408820156</v>
+        <v>269240.5029565797</v>
       </c>
       <c r="M6" t="n">
-        <v>184220.2129465036</v>
+        <v>184185.4750210678</v>
       </c>
       <c r="N6" t="n">
-        <v>269275.2408820153</v>
+        <v>269240.5029565798</v>
       </c>
       <c r="O6" t="n">
-        <v>269275.2408820153</v>
+        <v>269240.5029565795</v>
       </c>
       <c r="P6" t="n">
-        <v>269275.2408820152</v>
+        <v>269240.5029565798</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,22 +26805,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26990,13 +26990,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>268.5948491633369</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>70.75295578294816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>208.3807601228289</v>
+        <v>86.06113650312926</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>167.7205030288968</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>297.3186084685863</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>62.84158719031177</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>75.50340795433985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>28.18920568038214</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>54.8281797280472</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>25.82341831291993</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>122.063322125653</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.916515846374476e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,19 +33026,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33263,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,34 +33731,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191337</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
